--- a/sTools/excelTable/skillEffect.xlsx
+++ b/sTools/excelTable/skillEffect.xlsx
@@ -11,13 +11,124 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>直接伤害</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>seID(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{value(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值1</t>
+  </si>
+  <si>
+    <t>值0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}v2(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值2</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +143,26 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,26 +485,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/sTools/excelTable/skillEffect.xlsx
+++ b/sTools/excelTable/skillEffect.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
